--- a/MVP_02/SHOPPING_LISTS/ERIKS.xlsx
+++ b/MVP_02/SHOPPING_LISTS/ERIKS.xlsx
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>

--- a/MVP_02/SHOPPING_LISTS/ERIKS.xlsx
+++ b/MVP_02/SHOPPING_LISTS/ERIKS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -52,9 +52,6 @@
     <t>20-019382</t>
   </si>
   <si>
-    <t>20-019384</t>
-  </si>
-  <si>
     <t>20-019448</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>ROUGH NUT</t>
   </si>
   <si>
-    <t>MDRIVE LINEAR ACTUATOR B</t>
-  </si>
-  <si>
     <t>MOTOR CABLE</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>MLI1CRL14A4-EQ-LC3Z098AZ</t>
-  </si>
-  <si>
-    <t>MDI31RL14A4-EQ</t>
   </si>
   <si>
     <t>PD12B-1434-FL3</t>
@@ -475,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -532,13 +523,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -552,16 +543,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -575,16 +566,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -595,61 +589,38 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="1">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1">
         <v>1</v>
       </c>
     </row>
